--- a/afar_project/csv_path/sample/asset_register.xlsx
+++ b/afar_project/csv_path/sample/asset_register.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0001</t>
+          <t>FRC-SLM-7.0-4-17-01.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0002</t>
+          <t>FRC-SLM-7.0-4-17-02.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0003</t>
+          <t>FRC-SLM-7.0-4-17-03.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0004</t>
+          <t>FRC-SLM-7.0-4-17-04.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0005</t>
+          <t>FRC-SLM-7.0-4-17-05.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0006</t>
+          <t>FRC-SLM-7.0-4-17-06.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0007</t>
+          <t>FRC-SLM-7.0-4-17-07.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0008</t>
+          <t>FRC-SLM-7.0-4-17-08.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0009</t>
+          <t>FRC-SLM-7.0-4-17-09.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0010</t>
+          <t>FRC-SLM-7.0-4-17-10.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0011</t>
+          <t>FRC-SLM-7.0-4-17-11.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0012</t>
+          <t>FRC-SLM-7.0-4-17-12.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0013</t>
+          <t>FRC-SLM-7.0-4-17-13.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0014</t>
+          <t>FRC-SLM-7.0-4-17-14.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0015</t>
+          <t>FRC-SLM-7.0-4-17-15.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0016</t>
+          <t>FRC-SLM-7.0-4-17-16.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0017</t>
+          <t>FRC-SLM-7.0-4-18-17.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0018</t>
+          <t>FRC-SLM-7.0-4-17-18.0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0019</t>
+          <t>FRC-SLM-7.0-4-17-19.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0020</t>
+          <t>FRC-SLM-7.0-4-17-20.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0021</t>
+          <t>FRC-SLM-7.0-4-17-21.0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0022</t>
+          <t>FRC-SLM-7.0-4-17-22.0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0023</t>
+          <t>FRC-SLM-7.0-4-17-23.0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0024</t>
+          <t>FRC-SLM-7.0-4-17-24.0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0025</t>
+          <t>FRC-SLM-7.0-4-17-25.0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0026</t>
+          <t>FRC-SLM-7.0-4-17-26.0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0027</t>
+          <t>FRC-SLM-7.0-4-17-27.0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0028</t>
+          <t>FRC-SLM-7.0-4-17-28.0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0029</t>
+          <t>FRC-SLM-7.0-4-17-29.0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0030</t>
+          <t>FRC-SLM-7.0-4-17-30.0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0031</t>
+          <t>FRC-SLM-7.0-4-17-31.0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0032</t>
+          <t>FRC-SLM-7.0-4-18-32.0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0033</t>
+          <t>FRC-SLM-7.0-4-18-33.0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0034</t>
+          <t>FRC-SLM-7.0-4-18-34.0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0035</t>
+          <t>FRC-SLM-7.0-4-18-35.0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0036</t>
+          <t>FRC-SLM-7.0-4-18-36.0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0037</t>
+          <t>FRC-SLM-7.0-4-17-37.0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0038</t>
+          <t>FRC-SLM-7.0-4-18-38.0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0039</t>
+          <t>FRC-SLM-7.0-4-18-39.0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0040</t>
+          <t>FRC-SLM-7.0-4-18-40.0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0041</t>
+          <t>FRC-SLM-7.0-4-18-41.0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0042</t>
+          <t>FRC-SLM-7.0-4-17-42.0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0043</t>
+          <t>FRC-SLM-7.0-4-18-43.0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0044</t>
+          <t>FRC-SLM-7.0-4-18-44.0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0045</t>
+          <t>FRC-SLM-7.0-4-18-45.0</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0046</t>
+          <t>FRC-SLM-7.0-4-18-46.0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0047</t>
+          <t>FRC-SLM-7.0-4-17-47.0</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0048</t>
+          <t>FRC-SLM-7.0-4-17-48.0</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0049</t>
+          <t>FRC-SLM-7.0-4-18-49.0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0050</t>
+          <t>FRC-SLM-7.0-4-17-50.0</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0051</t>
+          <t>FRC-SLM-7.0-4-18-51.0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0052</t>
+          <t>FRC-SLM-7.0-4-17-52.0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-17-0053</t>
+          <t>FRC-SLM-7.0-4-17-53.0</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0054</t>
+          <t>FRC-SLM-7.0-4-18-54.0</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0055</t>
+          <t>FRC-SLM-7.0-4-18-55.0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0056</t>
+          <t>FRC-SLM-7.0-4-18-56.0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0057</t>
+          <t>FRC-SLM-7.0-4-18-57.0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0058</t>
+          <t>FRC-SLM-7.0-4-18-58.0</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0059</t>
+          <t>FRC-SLM-7.0-4-18-59.0</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5760,7 +5760,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0060</t>
+          <t>FRC-SLM-7.0-4-18-60.0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0061</t>
+          <t>FRC-SLM-7.0-4-18-61.0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0062</t>
+          <t>FRC-SLM-7.0-4-18-62.0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0063</t>
+          <t>FRC-SLM-7.0-4-18-63.0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0064</t>
+          <t>FRC-SLM-7.0-4-18-64.0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0065</t>
+          <t>FRC-SLM-7.0-4-18-65.0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0066</t>
+          <t>FRC-SLM-7.0-4-18-66.0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0067</t>
+          <t>FRC-SLM-7.0-4-18-67.0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0068</t>
+          <t>FRC-SLM-7.0-4-18-68.0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0069</t>
+          <t>FRC-SLM-7.0-4-18-69.0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0070</t>
+          <t>FRC-SLM-7.0-4-18-70.0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0071</t>
+          <t>FRC-SLM-7.0-4-18-71.0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0072</t>
+          <t>FRC-SLM-7.0-4-18-72.0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0073</t>
+          <t>FRC-SLM-7.0-4-18-73.0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0074</t>
+          <t>FRC-SLM-7.0-4-18-74.0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0075</t>
+          <t>FRC-SLM-7.0-4-18-75.0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0076</t>
+          <t>FRC-SLM-7.0-4-18-76.0</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0077</t>
+          <t>FRC-SLM-7.0-4-19-77.0</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0078</t>
+          <t>FRC-SLM-7.0-4-18-78.0</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0079</t>
+          <t>FRC-SLM-7.0-4-18-79.0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0080</t>
+          <t>FRC-SLM-7.0-4-18-80.0</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0081</t>
+          <t>FRC-SLM-7.0-4-18-81.0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0082</t>
+          <t>FRC-SLM-7.0-4-18-82.0</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0083</t>
+          <t>FRC-SLM-7.0-4-18-83.0</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0084</t>
+          <t>FRC-SLM-7.0-4-18-84.0</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0085</t>
+          <t>FRC-SLM-7.0-4-18-85.0</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0086</t>
+          <t>FRC-SLM-7.0-4-18-86.0</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0087</t>
+          <t>FRC-SLM-7.0-4-18-87.0</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0088</t>
+          <t>FRC-SLM-7.0-4-18-88.0</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0089</t>
+          <t>FRC-SLM-7.0-4-18-89.0</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0090</t>
+          <t>FRC-SLM-7.0-4-18-90.0</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0091</t>
+          <t>FRC-SLM-7.0-4-18-91.0</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0092</t>
+          <t>FRC-SLM-7.0-4-18-92.0</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0093</t>
+          <t>FRC-SLM-7.0-4-18-93.0</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0094</t>
+          <t>FRC-SLM-7.0-4-19-94.0</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0095</t>
+          <t>FRC-SLM-7.0-4-18-95.0</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0096</t>
+          <t>FRC-SLM-7.0-4-19-96.0</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0097</t>
+          <t>FRC-SLM-7.0-4-19-97.0</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0098</t>
+          <t>FRC-SLM-7.0-4-19-98.0</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0099</t>
+          <t>FRC-SLM-7.0-4-19-99.0</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0100</t>
+          <t>FRC-SLM-7.0-4-19-100.0</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0101</t>
+          <t>FRC-SLM-7.0-4-19-101.0</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0102</t>
+          <t>FRC-SLM-7.0-4-19-102.0</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0103</t>
+          <t>FRC-SLM-7.0-4-19-103.0</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0104</t>
+          <t>FRC-SLM-7.0-4-19-104.0</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0105</t>
+          <t>FRC-SLM-7.0-4-19-105.0</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-18-0106</t>
+          <t>FRC-SLM-7.0-4-18-106.0</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0107</t>
+          <t>FRC-SLM-7.0-4-19-107.0</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -9840,7 +9840,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0108</t>
+          <t>FRC-SLM-7.0-4-19-108.0</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0109</t>
+          <t>FRC-SLM-7.0-4-19-109.0</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0110</t>
+          <t>FRC-SLM-7.0-4-19-110.0</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0111</t>
+          <t>FRC-SLM-7.0-4-19-111.0</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0112</t>
+          <t>FRC-SLM-7.0-4-20-112.0</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0113</t>
+          <t>FRC-SLM-7.0-4-19-113.0</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0114</t>
+          <t>FRC-SLM-7.0-4-19-114.0</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0115</t>
+          <t>FRC-SLM-7.0-4-19-115.0</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0116</t>
+          <t>FRC-SLM-7.0-4-19-116.0</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0117</t>
+          <t>FRC-SLM-7.0-4-19-117.0</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0118</t>
+          <t>FRC-SLM-7.0-4-19-118.0</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0119</t>
+          <t>FRC-SLM-7.0-4-19-119.0</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0120</t>
+          <t>FRC-SLM-7.0-4-19-120.0</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0121</t>
+          <t>FRC-SLM-7.0-4-19-121.0</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -11088,7 +11088,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0122</t>
+          <t>FRC-SLM-7.0-4-19-122.0</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -11174,7 +11174,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0123</t>
+          <t>FRC-SLM-7.0-4-19-123.0</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0124</t>
+          <t>FRC-SLM-7.0-4-19-124.0</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-19-0125</t>
+          <t>FRC-SLM-7.0-4-19-125.0</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0126</t>
+          <t>FRC-SLM-7.0-4-20-126.0</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -11510,7 +11510,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0127</t>
+          <t>FRC-SLM-7.0-4-20-127.0</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0128</t>
+          <t>FRC-SLM-7.0-4-20-128.0</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0129</t>
+          <t>FRC-SLM-7.0-4-20-129.0</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0130</t>
+          <t>FRC-SLM-7.0-4-20-130.0</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0131</t>
+          <t>FRC-SLM-7.0-4-20-131.0</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0132</t>
+          <t>FRC-SLM-7.0-4-20-132.0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-20-0133</t>
+          <t>FRC-SLM-7.0-4-20-133.0</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -12096,7 +12096,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0134</t>
+          <t>FRC-SLM-7.0-4-21-134.0</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -12182,7 +12182,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0135</t>
+          <t>FRC-SLM-7.0-4-21-135.0</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0136</t>
+          <t>FRC-SLM-7.0-4-21-136.0</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -12346,7 +12346,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0137</t>
+          <t>FRC-SLM-7.0-4-21-137.0</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0138</t>
+          <t>FRC-SLM-7.0-4-21-138.0</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -12518,7 +12518,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0139</t>
+          <t>FRC-SLM-7.0-4-21-139.0</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0140</t>
+          <t>FRC-SLM-7.0-4-21-140.0</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0141</t>
+          <t>FRC-SLM-7.0-4-21-141.0</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0142</t>
+          <t>FRC-SLM-7.0-4-21-142.0</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0143</t>
+          <t>FRC-SLM-7.0-4-21-143.0</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-21-0144</t>
+          <t>FRC-SLM-7.0-4-21-144.0</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -13014,7 +13014,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0145</t>
+          <t>FRC-SLM-7.0-4-22-145.0</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0146</t>
+          <t>FRC-SLM-7.0-4-22-146.0</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0147</t>
+          <t>FRC-SLM-7.0-4-22-147.0</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0148</t>
+          <t>FRC-SLM-7.0-4-22-148.0</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -13342,7 +13342,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0149</t>
+          <t>FRC-SLM-7.0-4-22-149.0</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -13428,7 +13428,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-4-22-0150</t>
+          <t>FRC-SLM-7.0-4-22-150.0</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0152</t>
+          <t>FRC-SLM-7.0-n-22-152.0</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0153</t>
+          <t>FRC-SLM-7.0-n-22-153.0</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0154</t>
+          <t>FRC-SLM-7.0-n-22-154.0</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0155</t>
+          <t>FRC-SLM-7.0-n-22-155.0</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0156</t>
+          <t>FRC-SLM-7.0-n-22-156.0</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0157</t>
+          <t>FRC-SLM-7.0-n-22-157.0</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0158</t>
+          <t>FRC-SLM-7.0-n-22-158.0</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0159</t>
+          <t>FRC-SLM-7.0-n-22-159.0</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0160</t>
+          <t>FRC-SLM-7.0-n-22-160.0</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -14176,7 +14176,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0161</t>
+          <t>FRC-SLM-7.0-n-22-161.0</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -14250,7 +14250,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0162</t>
+          <t>FRC-SLM-7.0-n-22-162.0</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -14324,7 +14324,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0163</t>
+          <t>FRC-SLM-7.0-n-22-163.0</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0164</t>
+          <t>FRC-SLM-7.0-n-22-164.0</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0165</t>
+          <t>FRC-SLM-7.0-n-22-165.0</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0166</t>
+          <t>FRC-SLM-7.0-n-22-166.0</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0167</t>
+          <t>FRC-SLM-7.0-n-22-167.0</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -14694,7 +14694,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0168</t>
+          <t>FRC-SLM-7.0-n-22-168.0</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0169</t>
+          <t>FRC-SLM-7.0-n-22-169.0</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -14843,7 +14843,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0170</t>
+          <t>FRC-SLM-7.0-n-22-170.0</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0171</t>
+          <t>FRC-SLM-7.0-n-22-171.0</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0172</t>
+          <t>FRC-SLM-7.0-n-22-172.0</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0173</t>
+          <t>FRC-SLM-7.0-n-22-173.0</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -15151,7 +15151,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0174</t>
+          <t>FRC-SLM-7.0-n-22-174.0</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0175</t>
+          <t>FRC-SLM-7.0-n-22-175.0</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0176</t>
+          <t>FRC-SLM-7.0-n-22-176.0</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0177</t>
+          <t>FRC-SLM-7.0-n-22-177.0</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0178</t>
+          <t>FRC-SLM-7.0-n-22-178.0</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0179</t>
+          <t>FRC-SLM-7.0-n-22-179.0</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0180</t>
+          <t>FRC-SLM-7.0-n-22-180.0</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0181</t>
+          <t>FRC-SLM-7.0-n-22-181.0</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -15755,7 +15755,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0182</t>
+          <t>FRC-SLM-7.0-n-22-182.0</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0183</t>
+          <t>FRC-SLM-7.0-n-22-183.0</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0184</t>
+          <t>FRC-SLM-7.0-n-22-184.0</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0185</t>
+          <t>FRC-SLM-7.0-n-22-185.0</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -16052,7 +16052,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0186</t>
+          <t>FRC-SLM-7.0-n-22-186.0</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0187</t>
+          <t>FRC-SLM-7.0-n-22-187.0</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0188</t>
+          <t>FRC-SLM-7.0-n-22-188.0</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -16274,7 +16274,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0189</t>
+          <t>FRC-SLM-7.0-n-22-189.0</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0190</t>
+          <t>FRC-SLM-7.0-n-22-190.0</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0191</t>
+          <t>FRC-SLM-7.0-n-22-191.0</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0192</t>
+          <t>FRC-SLM-7.0-n-22-192.0</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0193</t>
+          <t>FRC-SLM-7.0-n-22-193.0</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -16656,7 +16656,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0194</t>
+          <t>FRC-SLM-7.0-n-22-194.0</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0195</t>
+          <t>FRC-SLM-7.0-n-22-195.0</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -16812,7 +16812,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0196</t>
+          <t>FRC-SLM-7.0-n-22-196.0</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -16886,7 +16886,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0197</t>
+          <t>FRC-SLM-7.0-n-22-197.0</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0198</t>
+          <t>FRC-SLM-7.0-n-22-198.0</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -17038,7 +17038,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0199</t>
+          <t>FRC-SLM-7.0-n-22-199.0</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0200</t>
+          <t>FRC-SLM-7.0-n-22-200.0</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -17194,7 +17194,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0201</t>
+          <t>FRC-SLM-7.0-n-22-201.0</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0202</t>
+          <t>FRC-SLM-7.0-n-22-202.0</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -17350,7 +17350,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0203</t>
+          <t>FRC-SLM-7.0-n-22-203.0</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0204</t>
+          <t>FRC-SLM-7.0-n-22-204.0</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -17506,7 +17506,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0205</t>
+          <t>FRC-SLM-7.0-n-22-205.0</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -17584,7 +17584,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0206</t>
+          <t>FRC-SLM-7.0-n-22-206.0</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0207</t>
+          <t>FRC-SLM-7.0-n-22-207.0</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0208</t>
+          <t>FRC-SLM-7.0-n-22-208.0</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -17818,7 +17818,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0209</t>
+          <t>FRC-SLM-7.0-n-22-209.0</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -17896,7 +17896,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0210</t>
+          <t>FRC-SLM-7.0-n-22-210.0</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0211</t>
+          <t>FRC-SLM-7.0-n-22-211.0</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0212</t>
+          <t>FRC-SLM-7.0-n-22-212.0</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -18130,7 +18130,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0213</t>
+          <t>FRC-SLM-7.0-n-22-213.0</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -18208,7 +18208,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0214</t>
+          <t>FRC-SLM-7.0-n-22-214.0</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0215</t>
+          <t>FRC-SLM-7.0-n-22-215.0</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -18364,7 +18364,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0216</t>
+          <t>FRC-SLM-7.0-n-22-216.0</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0217</t>
+          <t>FRC-SLM-7.0-n-22-217.0</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -18520,7 +18520,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0218</t>
+          <t>FRC-SLM-7.0-n-22-218.0</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0219</t>
+          <t>FRC-SLM-7.0-n-22-219.0</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -18684,7 +18684,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0220</t>
+          <t>FRC-SLM-7.0-n-22-220.0</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -18762,7 +18762,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0221</t>
+          <t>FRC-SLM-7.0-n-22-221.0</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0222</t>
+          <t>FRC-SLM-7.0-n-22-222.0</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -18914,7 +18914,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0223</t>
+          <t>FRC-SLM-7.0-n-22-223.0</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -18988,7 +18988,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0224</t>
+          <t>FRC-SLM-7.0-n-22-224.0</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -19066,7 +19066,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0225</t>
+          <t>FRC-SLM-7.0-n-22-225.0</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -19144,7 +19144,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0226</t>
+          <t>FRC-SLM-7.0-n-22-226.0</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0227</t>
+          <t>FRC-SLM-7.0-n-22-227.0</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -19300,7 +19300,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0228</t>
+          <t>FRC-SLM-7.0-n-22-228.0</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -19374,7 +19374,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0229</t>
+          <t>FRC-SLM-7.0-n-22-229.0</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -19448,7 +19448,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0230</t>
+          <t>FRC-SLM-7.0-n-22-230.0</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0231</t>
+          <t>FRC-SLM-7.0-n-22-231.0</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -19596,7 +19596,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0232</t>
+          <t>FRC-SLM-7.0-n-22-232.0</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0233</t>
+          <t>FRC-SLM-7.0-n-22-233.0</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -19744,7 +19744,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0234</t>
+          <t>FRC-SLM-7.0-n-22-234.0</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -19818,7 +19818,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0235</t>
+          <t>FRC-SLM-7.0-n-22-235.0</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0236</t>
+          <t>FRC-SLM-7.0-n-22-236.0</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -19974,7 +19974,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0237</t>
+          <t>FRC-SLM-7.0-n-22-237.0</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -20048,7 +20048,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0238</t>
+          <t>FRC-SLM-7.0-n-22-238.0</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0239</t>
+          <t>FRC-SLM-7.0-n-22-239.0</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -20196,7 +20196,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0240</t>
+          <t>FRC-SLM-7.0-n-22-240.0</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -20270,7 +20270,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0241</t>
+          <t>FRC-SLM-7.0-n-22-241.0</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -20344,7 +20344,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0242</t>
+          <t>FRC-SLM-7.0-n-22-242.0</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -20418,7 +20418,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0243</t>
+          <t>FRC-SLM-7.0-n-22-243.0</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0244</t>
+          <t>FRC-SLM-7.0-n-22-244.0</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -20566,7 +20566,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0245</t>
+          <t>FRC-SLM-7.0-n-22-245.0</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -20640,7 +20640,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0246</t>
+          <t>FRC-SLM-7.0-n-22-246.0</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -20714,7 +20714,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0247</t>
+          <t>FRC-SLM-7.0-n-22-247.0</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -20788,7 +20788,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0248</t>
+          <t>FRC-SLM-7.0-n-22-248.0</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -20862,7 +20862,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0249</t>
+          <t>FRC-SLM-7.0-n-22-249.0</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -20936,7 +20936,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0250</t>
+          <t>FRC-SLM-7.0-n-22-250.0</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0251</t>
+          <t>FRC-SLM-7.0-n-22-251.0</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0252</t>
+          <t>FRC-SLM-7.0-n-22-252.0</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -21158,7 +21158,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0253</t>
+          <t>FRC-SLM-7.0-n-22-253.0</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0254</t>
+          <t>FRC-SLM-7.0-n-22-254.0</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -21306,7 +21306,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0255</t>
+          <t>FRC-SLM-7.0-n-22-255.0</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -21380,7 +21380,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0256</t>
+          <t>FRC-SLM-7.0-n-22-256.0</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -21454,7 +21454,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0257</t>
+          <t>FRC-SLM-7.0-n-22-257.0</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0258</t>
+          <t>FRC-SLM-7.0-n-22-258.0</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -21602,7 +21602,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0259</t>
+          <t>FRC-SLM-7.0-n-22-259.0</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -21676,7 +21676,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0260</t>
+          <t>FRC-SLM-7.0-n-22-260.0</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -21750,7 +21750,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0261</t>
+          <t>FRC-SLM-7.0-n-22-261.0</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -21824,7 +21824,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0262</t>
+          <t>FRC-SLM-7.0-n-22-262.0</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -21898,7 +21898,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0263</t>
+          <t>FRC-SLM-7.0-n-22-263.0</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -21972,7 +21972,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0264</t>
+          <t>FRC-SLM-7.0-n-22-264.0</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -22046,7 +22046,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0265</t>
+          <t>FRC-SLM-7.0-n-22-265.0</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0266</t>
+          <t>FRC-SLM-7.0-n-22-266.0</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -22194,7 +22194,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0267</t>
+          <t>FRC-SLM-7.0-n-22-267.0</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -22268,7 +22268,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0268</t>
+          <t>FRC-SLM-7.0-n-22-268.0</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -22342,7 +22342,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0269</t>
+          <t>FRC-SLM-7.0-n-22-269.0</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -22420,7 +22420,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0270</t>
+          <t>FRC-SLM-7.0-n-22-270.0</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -22494,7 +22494,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0271</t>
+          <t>FRC-SLM-7.0-n-22-271.0</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0272</t>
+          <t>FRC-SLM-7.0-n-22-272.0</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -22642,7 +22642,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0273</t>
+          <t>FRC-SLM-7.0-n-22-273.0</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -22716,7 +22716,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0274</t>
+          <t>FRC-SLM-7.0-n-22-274.0</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0275</t>
+          <t>FRC-SLM-7.0-n-22-275.0</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -22864,7 +22864,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0276</t>
+          <t>FRC-SLM-7.0-n-22-276.0</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -22938,7 +22938,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0277</t>
+          <t>FRC-SLM-7.0-n-22-277.0</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -23012,7 +23012,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0278</t>
+          <t>FRC-SLM-7.0-n-22-278.0</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -23086,7 +23086,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0279</t>
+          <t>FRC-SLM-7.0-n-22-279.0</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -23160,7 +23160,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0280</t>
+          <t>FRC-SLM-7.0-n-22-280.0</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -23234,7 +23234,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0281</t>
+          <t>FRC-SLM-7.0-n-22-281.0</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -23308,7 +23308,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0282</t>
+          <t>FRC-SLM-7.0-n-22-282.0</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -23382,7 +23382,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0283</t>
+          <t>FRC-SLM-7.0-n-22-283.0</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -23456,7 +23456,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0284</t>
+          <t>FRC-SLM-7.0-n-22-284.0</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -23534,7 +23534,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0285</t>
+          <t>FRC-SLM-7.0-n-22-285.0</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -23612,7 +23612,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0286</t>
+          <t>FRC-SLM-7.0-n-22-286.0</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -23690,7 +23690,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0287</t>
+          <t>FRC-SLM-7.0-n-22-287.0</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -23764,7 +23764,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0288</t>
+          <t>FRC-SLM-7.0-n-22-288.0</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -23842,7 +23842,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0289</t>
+          <t>FRC-SLM-7.0-n-22-289.0</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -23920,7 +23920,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0290</t>
+          <t>FRC-SLM-7.0-n-22-290.0</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -23998,7 +23998,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0291</t>
+          <t>FRC-SLM-7.0-n-22-291.0</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -24076,7 +24076,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0292</t>
+          <t>FRC-SLM-7.0-n-22-292.0</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -24154,7 +24154,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0293</t>
+          <t>FRC-SLM-7.0-n-22-293.0</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -24232,7 +24232,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0294</t>
+          <t>FRC-SLM-7.0-n-22-294.0</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0295</t>
+          <t>FRC-SLM-7.0-n-22-295.0</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -24388,7 +24388,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0296</t>
+          <t>FRC-SLM-7.0-n-22-296.0</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -24462,7 +24462,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0297</t>
+          <t>FRC-SLM-7.0-n-22-297.0</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -24536,7 +24536,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0298</t>
+          <t>FRC-SLM-7.0-n-22-298.0</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -24610,7 +24610,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0299</t>
+          <t>FRC-SLM-7.0-n-22-299.0</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0300</t>
+          <t>FRC-SLM-7.0-n-22-300.0</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -24758,7 +24758,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>FRC-SLM-7-n-22-0301</t>
+          <t>FRC-SLM-7.0-n-22-301.0</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>

--- a/afar_project/csv_path/sample/asset_register.xlsx
+++ b/afar_project/csv_path/sample/asset_register.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Sold Unit(Modified)</t>
+          <t>Years used(sold items)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">

--- a/afar_project/csv_path/sample/asset_register.xlsx
+++ b/afar_project/csv_path/sample/asset_register.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-01.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-02.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-03.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-04.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-05.0</t>
+          <t>FRC-HQ-SLM-0-17-0005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-06.0</t>
+          <t>FRC-HQ-SLM-0-17-0006</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-07.0</t>
+          <t>FRC-HQ-SLM-0-17-0007</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-08.0</t>
+          <t>FRC-HQ-SLM-0-17-0008</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-09.0</t>
+          <t>FRC-HQ-SLM-0-17-0009</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-10.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-11.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-12.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-13.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-14.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-15.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-16.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-17.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-18.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-19.0</t>
+          <t>FRC-HQ-SLM-0-17-0001</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-20.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-21.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-22.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-23.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-24.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-25.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-26.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-27.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-28.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-29.0</t>
+          <t>FRC-HQ-SLM-0-17-0002</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-30.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-31.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-32.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-33.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-34.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-35.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-36.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-37.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-38.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-39.0</t>
+          <t>FRC-HQ-SLM-0-17-0003</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-40.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-41.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-42.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-43.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-44.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-45.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-46.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-47.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-48.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-49.0</t>
+          <t>FRC-HQ-SLM-0-17-0004</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-50.0</t>
+          <t>FRC-HQ-SLM-0-17-0005</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-51.0</t>
+          <t>FRC-HQ-SLM-0-17-0005</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-52.0</t>
+          <t>FRC-HQ-SLM-0-17-0005</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-17-53.0</t>
+          <t>FRC-HQ-SLM-0-17-0005</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-54.0</t>
+          <t>FRC-HQ-SLM-0-18-0005</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-55.0</t>
+          <t>FRC-HQ-SLM-0-18-0005</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-56.0</t>
+          <t>FRC-HQ-SLM-0-18-0005</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-57.0</t>
+          <t>FRC-HQ-SLM-0-18-0005</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-58.0</t>
+          <t>FRC-HQ-SLM-0-18-0005</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-59.0</t>
+          <t>FRC-HQ-SLM-0-18-0005</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-60.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-61.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-62.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-63.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-64.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-65.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-66.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-67.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-68.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-69.0</t>
+          <t>FRC-HQ-SLM-0-18-0006</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-70.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-71.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-72.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-73.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-74.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-75.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-76.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-77.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-78.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-79.0</t>
+          <t>FRC-HQ-SLM-0-18-0007</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-80.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-81.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-82.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-83.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-84.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-85.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-86.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-87.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-88.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-89.0</t>
+          <t>FRC-HQ-SLM-0-18-0008</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-90.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-91.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-92.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-93.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-94.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-95.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-96.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-97.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-98.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-99.0</t>
+          <t>FRC-HQ-SLM-0-18-0009</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-100.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-101.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-102.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-103.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-104.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-105.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-18-106.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-107.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-108.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-109.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-110.0</t>
+          <t>FRC-HQ-SLM-0-18-0001</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-111.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-112.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-113.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-114.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-115.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-116.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-117.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-118.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-119.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-120.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-121.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-122.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-123.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-124.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-19-125.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-126.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-127.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-128.0</t>
+          <t>FRC-HQ-SLM-0-19-0001</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-129.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-130.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-131.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-132.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-20-133.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-134.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-135.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-136.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-137.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -13122,7 +13122,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-138.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-139.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-140.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-141.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-142.0</t>
+          <t>FRC-HQ-SLM-0-20-0001</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-143.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-21-144.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-145.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-146.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-147.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-148.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-149.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-4-22-150.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-152.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-153.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-154.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-155.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-156.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-157.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-158.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-159.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-160.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-161.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-162.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-163.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-164.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-165.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-166.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-167.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-168.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -15608,7 +15608,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-169.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-170.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -15771,7 +15771,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-171.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -15850,7 +15850,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-172.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-173.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-174.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -16099,7 +16099,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-175.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-176.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -16261,7 +16261,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-177.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-178.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -16419,7 +16419,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-179.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -16498,7 +16498,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-180.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-181.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-182.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-183.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -16818,7 +16818,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-184.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -16898,7 +16898,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-185.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-186.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-187.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-188.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -17214,7 +17214,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-189.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -17293,7 +17293,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-190.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -17376,7 +17376,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-191.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -17459,7 +17459,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-192.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-193.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-194.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-195.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-196.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-197.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-198.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -18028,7 +18028,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-199.0</t>
+          <t>FRC-HQ-SLM-0-21-0001</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -18111,7 +18111,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-200.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-201.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-202.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -18360,7 +18360,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-203.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -18443,7 +18443,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-204.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -18526,7 +18526,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-205.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-206.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-207.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-208.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-209.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -18941,7 +18941,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-210.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -19024,7 +19024,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-211.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -19107,7 +19107,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-212.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -19190,7 +19190,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-213.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-214.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-215.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -19439,7 +19439,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-216.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-217.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-218.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -19692,7 +19692,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-219.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-220.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-221.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -19945,7 +19945,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-222.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-223.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-224.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-225.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -20269,7 +20269,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-226.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-227.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-228.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -20514,7 +20514,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-229.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-230.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-231.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -20751,7 +20751,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-232.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -20830,7 +20830,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-233.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-234.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -20988,7 +20988,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-235.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -21071,7 +21071,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-236.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -21154,7 +21154,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-237.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-238.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -21312,7 +21312,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-239.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -21391,7 +21391,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-240.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -21470,7 +21470,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-241.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-242.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -21628,7 +21628,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-243.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -21707,7 +21707,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-244.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-245.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -21865,7 +21865,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-246.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-247.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -22023,7 +22023,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-248.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-249.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -22181,7 +22181,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-250.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -22260,7 +22260,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-251.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -22339,7 +22339,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-252.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -22418,7 +22418,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-253.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-254.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -22576,7 +22576,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-255.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-256.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -22734,7 +22734,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-257.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-258.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-259.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -22971,7 +22971,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-260.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -23050,7 +23050,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-261.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-262.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-263.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-264.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-265.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -23445,7 +23445,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-266.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -23524,7 +23524,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-267.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -23603,7 +23603,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-268.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -23682,7 +23682,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-269.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -23765,7 +23765,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-270.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -23844,7 +23844,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-271.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -23923,7 +23923,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-272.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -24002,7 +24002,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-273.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-274.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-275.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-276.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -24318,7 +24318,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-277.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-278.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-279.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -24555,7 +24555,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-280.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -24634,7 +24634,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-281.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -24713,7 +24713,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-282.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -24792,7 +24792,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-283.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-284.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -24954,7 +24954,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-285.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -25037,7 +25037,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-286.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -25120,7 +25120,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-287.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -25199,7 +25199,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-288.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -25282,7 +25282,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-289.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -25365,7 +25365,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-290.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -25448,7 +25448,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-291.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-292.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -25614,7 +25614,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-293.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -25697,7 +25697,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-294.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -25780,7 +25780,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-295.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -25863,7 +25863,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-296.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -25942,7 +25942,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-297.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -26021,7 +26021,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-298.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -26100,7 +26100,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-299.0</t>
+          <t>FRC-HQ-SLM-0-21-0002</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -26179,7 +26179,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-300.0</t>
+          <t>FRC-HQ-SLM-0-21-0003</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -26258,7 +26258,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>FRC-7.0-28431.0-n-22-301.0</t>
+          <t>FRC-HQ-SLM-0-21-0003</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>

--- a/afar_project/csv_path/sample/asset_register.xlsx
+++ b/afar_project/csv_path/sample/asset_register.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-01.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-02.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-03.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-04.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0005</t>
+          <t>FRC-HQ-SLM-0-17-05.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0006</t>
+          <t>FRC-HQ-SLM-0-17-06.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0007</t>
+          <t>FRC-HQ-SLM-0-17-07.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0008</t>
+          <t>FRC-HQ-SLM-0-17-08.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0009</t>
+          <t>FRC-HQ-SLM-0-17-09.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-10.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-11.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-12.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-13.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-14.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-15.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-16.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-17.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-18.0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0001</t>
+          <t>FRC-HQ-SLM-0-17-19.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-20.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-21.0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-22.0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-23.0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-24.0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-25.0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-26.0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-27.0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-28.0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0002</t>
+          <t>FRC-HQ-SLM-0-17-29.0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-30.0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-31.0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-32.0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-33.0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-34.0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-35.0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-36.0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-37.0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-38.0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0003</t>
+          <t>FRC-HQ-SLM-0-17-39.0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-40.0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-41.0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-42.0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-43.0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-44.0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-45.0</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-46.0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-47.0</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-48.0</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0004</t>
+          <t>FRC-HQ-SLM-0-17-49.0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0005</t>
+          <t>FRC-HQ-SLM-0-17-50.0</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0005</t>
+          <t>FRC-HQ-SLM-0-17-51.0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0005</t>
+          <t>FRC-HQ-SLM-0-17-52.0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-0005</t>
+          <t>FRC-HQ-SLM-0-17-53.0</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0005</t>
+          <t>FRC-HQ-SLM-0-18-54.0</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0005</t>
+          <t>FRC-HQ-SLM-0-18-55.0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0005</t>
+          <t>FRC-HQ-SLM-0-18-56.0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0005</t>
+          <t>FRC-HQ-SLM-0-18-57.0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0005</t>
+          <t>FRC-HQ-SLM-0-18-58.0</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0005</t>
+          <t>FRC-HQ-SLM-0-18-59.0</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-60.0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-61.0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-62.0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-63.0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-64.0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-65.0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-66.0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-67.0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-68.0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0006</t>
+          <t>FRC-HQ-SLM-0-18-69.0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-70.0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-71.0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-72.0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-73.0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-74.0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-75.0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-76.0</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-77.0</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-78.0</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0007</t>
+          <t>FRC-HQ-SLM-0-18-79.0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-80.0</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-81.0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-82.0</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-83.0</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-84.0</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-85.0</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-86.0</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-87.0</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-88.0</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0008</t>
+          <t>FRC-HQ-SLM-0-18-89.0</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-90.0</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-91.0</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-92.0</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-93.0</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-94.0</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-95.0</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-96.0</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-97.0</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-98.0</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0009</t>
+          <t>FRC-HQ-SLM-0-18-99.0</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-100.0</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-101.0</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-102.0</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-103.0</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-104.0</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-105.0</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-106.0</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-107.0</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-108.0</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-109.0</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-0001</t>
+          <t>FRC-HQ-SLM-0-18-110.0</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-111.0</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-112.0</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-113.0</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-114.0</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-115.0</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-116.0</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-117.0</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-118.0</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-119.0</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-120.0</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-121.0</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-122.0</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-123.0</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-124.0</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-125.0</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-126.0</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-127.0</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-0001</t>
+          <t>FRC-HQ-SLM-0-19-128.0</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-129.0</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-130.0</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-131.0</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-132.0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-133.0</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-134.0</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-135.0</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-136.0</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-137.0</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -13122,7 +13122,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-138.0</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-139.0</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-140.0</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-141.0</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-0001</t>
+          <t>FRC-HQ-SLM-0-20-142.0</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-143.0</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-144.0</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-145.0</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-146.0</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-147.0</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-148.0</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-149.0</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-150.0</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-152.0</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-153.0</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-154.0</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-155.0</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-156.0</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-157.0</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-158.0</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-159.0</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-160.0</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-161.0</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-162.0</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-163.0</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-164.0</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-165.0</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-166.0</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-167.0</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-168.0</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -15608,7 +15608,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-169.0</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-170.0</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -15771,7 +15771,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-171.0</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -15850,7 +15850,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-172.0</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-173.0</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-174.0</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -16099,7 +16099,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-175.0</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-176.0</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -16261,7 +16261,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-177.0</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-178.0</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -16419,7 +16419,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-179.0</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -16498,7 +16498,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-180.0</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-181.0</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-182.0</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-183.0</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -16818,7 +16818,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-184.0</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -16898,7 +16898,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-185.0</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-186.0</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-187.0</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-188.0</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -17214,7 +17214,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-189.0</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -17293,7 +17293,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-190.0</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -17376,7 +17376,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-191.0</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -17459,7 +17459,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-192.0</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-193.0</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-194.0</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-195.0</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-196.0</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-197.0</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-198.0</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -18028,7 +18028,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0001</t>
+          <t>FRC-HQ-SLM-0-21-199.0</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -18111,7 +18111,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-200.0</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-201.0</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-202.0</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -18360,7 +18360,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-203.0</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -18443,7 +18443,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-204.0</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -18526,7 +18526,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-205.0</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-206.0</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-207.0</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-208.0</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-209.0</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -18941,7 +18941,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-210.0</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -19024,7 +19024,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-211.0</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -19107,7 +19107,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-212.0</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -19190,7 +19190,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-213.0</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-214.0</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-215.0</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -19439,7 +19439,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-216.0</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-217.0</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-218.0</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -19692,7 +19692,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-219.0</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-220.0</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-221.0</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -19945,7 +19945,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-222.0</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-223.0</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-224.0</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-225.0</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -20269,7 +20269,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-226.0</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-227.0</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-228.0</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -20514,7 +20514,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-229.0</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-230.0</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-231.0</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -20751,7 +20751,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-232.0</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -20830,7 +20830,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-233.0</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-234.0</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -20988,7 +20988,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-235.0</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -21071,7 +21071,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-236.0</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -21154,7 +21154,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-237.0</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-238.0</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -21312,7 +21312,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-239.0</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -21391,7 +21391,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-240.0</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -21470,7 +21470,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-241.0</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-242.0</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -21628,7 +21628,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-243.0</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -21707,7 +21707,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-244.0</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-245.0</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -21865,7 +21865,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-246.0</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-247.0</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -22023,7 +22023,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-248.0</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-249.0</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -22181,7 +22181,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-250.0</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -22260,7 +22260,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-251.0</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -22339,7 +22339,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-252.0</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -22418,7 +22418,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-253.0</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-254.0</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -22576,7 +22576,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-255.0</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-256.0</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -22734,7 +22734,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-257.0</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-258.0</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-259.0</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -22971,7 +22971,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-260.0</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -23050,7 +23050,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-261.0</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-262.0</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-263.0</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-264.0</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-265.0</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -23445,7 +23445,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-266.0</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -23524,7 +23524,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-267.0</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -23603,7 +23603,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-268.0</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -23682,7 +23682,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-269.0</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -23765,7 +23765,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-270.0</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -23844,7 +23844,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-271.0</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -23923,7 +23923,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-272.0</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -24002,7 +24002,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-273.0</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-274.0</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-275.0</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-276.0</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -24318,7 +24318,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-277.0</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-278.0</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-279.0</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -24555,7 +24555,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-280.0</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -24634,7 +24634,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-281.0</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -24713,7 +24713,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-282.0</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -24792,7 +24792,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-283.0</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-284.0</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -24954,7 +24954,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-285.0</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -25037,7 +25037,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-286.0</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -25120,7 +25120,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-287.0</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -25199,7 +25199,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-288.0</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -25282,7 +25282,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-289.0</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -25365,7 +25365,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-290.0</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -25448,7 +25448,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-291.0</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-292.0</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -25614,7 +25614,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-293.0</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -25697,7 +25697,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-294.0</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -25780,7 +25780,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-295.0</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -25863,7 +25863,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-296.0</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -25942,7 +25942,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-297.0</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -26021,7 +26021,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-298.0</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -26100,7 +26100,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0002</t>
+          <t>FRC-HQ-SLM-0-21-299.0</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -26179,7 +26179,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0003</t>
+          <t>FRC-HQ-SLM-0-21-300.0</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -26258,7 +26258,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-0003</t>
+          <t>FRC-HQ-SLM-0-21-301.0</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>

--- a/afar_project/csv_path/sample/asset_register.xlsx
+++ b/afar_project/csv_path/sample/asset_register.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-01.0</t>
+          <t>FRC-HQ-SLM-O-17-0001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-02.0</t>
+          <t>FRC-HQ-SLM-O-17-0002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-03.0</t>
+          <t>FRC-HQ-SLM-O-17-0003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-04.0</t>
+          <t>FRC-HQ-SLM-O-17-0004</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-05.0</t>
+          <t>FRC-HQ-SLM-O-17-0005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-06.0</t>
+          <t>FRC-HQ-SLM-O-17-0006</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-07.0</t>
+          <t>FRC-HQ-SLM-O-17-0007</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-08.0</t>
+          <t>FRC-HQ-SLM-O-17-0008</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-09.0</t>
+          <t>FRC-HQ-SLM-O-17-0009</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-10.0</t>
+          <t>FRC-HQ-SLM-C-17-0010</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-11.0</t>
+          <t>FRC-HQ-SLM-C-17-0011</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-12.0</t>
+          <t>FRC-HQ-SLM-O-17-0012</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-13.0</t>
+          <t>FRC-HQ-SLM-O-17-0013</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-14.0</t>
+          <t>FRC-HQ-SLM-F-17-0014</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-15.0</t>
+          <t>FRC-HQ-SLM-O-17-0015</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-16.0</t>
+          <t>FRC-HQ-SLM-O-17-0016</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-17.0</t>
+          <t>FRC-HQ-SLM-F-17-0017</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-18.0</t>
+          <t>FRC-HQ-SLM-O-17-0018</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-19.0</t>
+          <t>FRC-HQ-SLM-F-17-0019</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-20.0</t>
+          <t>FRC-HQ-SLM-F-17-0020</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-21.0</t>
+          <t>FRC-HQ-SLM-O-17-0021</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-22.0</t>
+          <t>FRC-HQ-SLM-O-17-0022</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-23.0</t>
+          <t>FRC-HQ-SLM-O-17-0023</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-24.0</t>
+          <t>FRC-HQ-SLM-F-17-0024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-25.0</t>
+          <t>FRC-HQ-SLM-F-17-0025</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-26.0</t>
+          <t>FRC-HQ-SLM-F-17-0026</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-27.0</t>
+          <t>FRC-HQ-SLM-F-17-0027</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-28.0</t>
+          <t>FRC-HQ-SLM-O-17-0028</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-29.0</t>
+          <t>FRC-HQ-SLM-F-17-0029</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-30.0</t>
+          <t>FRC-HQ-SLM-F-17-0030</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-31.0</t>
+          <t>FRC-HQ-SLM-F-17-0031</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-32.0</t>
+          <t>FRC-HQ-SLM-O-17-0032</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-33.0</t>
+          <t>FRC-HQ-SLM-F-17-0033</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-34.0</t>
+          <t>FRC-HQ-SLM-O-17-0034</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-35.0</t>
+          <t>FRC-HQ-SLM-F-17-0035</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-36.0</t>
+          <t>FRC-HQ-SLM-O-17-0036</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-37.0</t>
+          <t>FRC-HQ-SLM-O-17-0037</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-38.0</t>
+          <t>FRC-HQ-SLM-O-17-0038</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-39.0</t>
+          <t>FRC-HQ-SLM-F-17-0039</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-40.0</t>
+          <t>FRC-HQ-SLM-F-17-0040</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-41.0</t>
+          <t>FRC-HQ-SLM-O-17-0041</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-42.0</t>
+          <t>FRC-HQ-SLM-F-17-0042</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-43.0</t>
+          <t>FRC-HQ-SLM-F-17-0043</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-44.0</t>
+          <t>FRC-HQ-SLM-F-17-0044</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-45.0</t>
+          <t>FRC-HQ-SLM-T-17-0045</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-46.0</t>
+          <t>FRC-HQ-SLM-T-17-0046</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-47.0</t>
+          <t>FRC-HQ-SLM-F-17-0047</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-48.0</t>
+          <t>FRC-HQ-SLM-O-17-0048</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-49.0</t>
+          <t>FRC-HQ-SLM-F-17-0049</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-50.0</t>
+          <t>FRC-HQ-SLM-O-17-0050</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-51.0</t>
+          <t>FRC-HQ-SLM-O-17-0051</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-52.0</t>
+          <t>FRC-HQ-SLM-F-17-0052</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-53.0</t>
+          <t>FRC-HQ-SLM-F-17-0053</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-54.0</t>
+          <t>FRC-HQ-SLM-F-18-0054</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-55.0</t>
+          <t>FRC-HQ-SLM-F-18-0055</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-56.0</t>
+          <t>FRC-HQ-SLM-F-18-0056</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-57.0</t>
+          <t>FRC-HQ-SLM-F-18-0057</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-58.0</t>
+          <t>FRC-HQ-SLM-F-18-0058</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-59.0</t>
+          <t>FRC-HQ-SLM-F-18-0059</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-60.0</t>
+          <t>FRC-HQ-SLM-C-18-0060</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-61.0</t>
+          <t>FRC-HQ-SLM-C-18-0061</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-62.0</t>
+          <t>FRC-HQ-SLM-O-18-0062</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-63.0</t>
+          <t>FRC-HQ-SLM-F-18-0063</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-64.0</t>
+          <t>FRC-HQ-SLM-F-18-0064</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-65.0</t>
+          <t>FRC-HQ-SLM-C-18-0065</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-66.0</t>
+          <t>FRC-HQ-SLM-C-18-0066</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-67.0</t>
+          <t>FRC-HQ-SLM-F-18-0067</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-68.0</t>
+          <t>FRC-HQ-SLM-F-18-0068</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-69.0</t>
+          <t>FRC-HQ-SLM-F-18-0069</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-70.0</t>
+          <t>FRC-HQ-SLM-F-18-0070</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-71.0</t>
+          <t>FRC-HQ-SLM-C-18-0071</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-72.0</t>
+          <t>FRC-HQ-SLM-F-18-0072</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-73.0</t>
+          <t>FRC-HQ-SLM-F-18-0073</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-74.0</t>
+          <t>FRC-HQ-SLM-F-18-0074</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-75.0</t>
+          <t>FRC-HQ-SLM-F-18-0075</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-76.0</t>
+          <t>FRC-HQ-SLM-T-18-0076</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-77.0</t>
+          <t>FRC-HQ-SLM-F-18-0077</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-78.0</t>
+          <t>FRC-HQ-SLM-F-18-0078</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-79.0</t>
+          <t>FRC-HQ-SLM-F-18-0079</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-80.0</t>
+          <t>FRC-HQ-SLM-C-18-0080</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-81.0</t>
+          <t>FRC-HQ-SLM-C-18-0081</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-82.0</t>
+          <t>FRC-HQ-SLM-C-18-0082</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-83.0</t>
+          <t>FRC-HQ-SLM-C-18-0083</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-84.0</t>
+          <t>FRC-HQ-SLM-O-18-0084</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-85.0</t>
+          <t>FRC-HQ-SLM-C-18-0085</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-86.0</t>
+          <t>FRC-HQ-SLM-C-18-0086</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-87.0</t>
+          <t>FRC-HQ-SLM-O-18-0087</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-88.0</t>
+          <t>FRC-HQ-SLM-C-18-0088</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-89.0</t>
+          <t>FRC-HQ-SLM-C-18-0089</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-90.0</t>
+          <t>FRC-HQ-SLM-C-18-0090</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-91.0</t>
+          <t>FRC-HQ-SLM-F-18-0091</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-92.0</t>
+          <t>FRC-HQ-SLM-F-18-0092</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-93.0</t>
+          <t>FRC-HQ-SLM-F-18-0093</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-94.0</t>
+          <t>FRC-HQ-SLM-O-18-0094</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-95.0</t>
+          <t>FRC-HQ-SLM-F-18-0095</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-96.0</t>
+          <t>FRC-HQ-SLM-O-18-0096</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-97.0</t>
+          <t>FRC-HQ-SLM-T-18-0097</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-98.0</t>
+          <t>FRC-HQ-SLM-M-18-0098</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-99.0</t>
+          <t>FRC-HQ-SLM-M-18-0099</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-100.0</t>
+          <t>FRC-HQ-SLM-O-18-0100</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-101.0</t>
+          <t>FRC-HQ-SLM-O-18-0101</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-102.0</t>
+          <t>FRC-HQ-SLM-O-18-0102</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-103.0</t>
+          <t>FRC-HQ-SLM-O-18-0103</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-104.0</t>
+          <t>FRC-HQ-SLM-O-18-0104</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-105.0</t>
+          <t>FRC-HQ-SLM-O-18-0105</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-106.0</t>
+          <t>FRC-HQ-SLM-O-18-0106</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-107.0</t>
+          <t>FRC-HQ-SLM-O-18-0107</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-108.0</t>
+          <t>FRC-HQ-SLM-O-18-0108</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-109.0</t>
+          <t>FRC-HQ-SLM-O-18-0109</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-110.0</t>
+          <t>FRC-HQ-SLM-F-18-0110</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-111.0</t>
+          <t>FRC-HQ-SLM-F-19-0111</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-112.0</t>
+          <t>FRC-HQ-SLM-F-19-0112</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-113.0</t>
+          <t>FRC-HQ-SLM-F-19-0113</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-114.0</t>
+          <t>FRC-HQ-SLM-F-19-0114</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-115.0</t>
+          <t>FRC-HQ-SLM-F-19-0115</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-116.0</t>
+          <t>FRC-HQ-SLM-O-19-0116</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-117.0</t>
+          <t>FRC-HQ-SLM-F-19-0117</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-118.0</t>
+          <t>FRC-HQ-SLM-F-19-0118</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-119.0</t>
+          <t>FRC-HQ-SLM-O-19-0119</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-120.0</t>
+          <t>FRC-HQ-SLM-O-19-0120</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-121.0</t>
+          <t>FRC-HQ-SLM-F-19-0121</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-122.0</t>
+          <t>FRC-HQ-SLM-C-19-0122</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-123.0</t>
+          <t>FRC-HQ-SLM-C-19-0123</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-124.0</t>
+          <t>FRC-HQ-SLM-C-19-0124</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-125.0</t>
+          <t>FRC-HQ-SLM-C-19-0125</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-126.0</t>
+          <t>FRC-HQ-SLM-F-19-0126</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-127.0</t>
+          <t>FRC-HQ-SLM-F-19-0127</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-128.0</t>
+          <t>FRC-HQ-SLM-F-19-0128</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-129.0</t>
+          <t>FRC-HQ-SLM-C-20-0129</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-130.0</t>
+          <t>FRC-HQ-SLM-C-20-0130</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-131.0</t>
+          <t>FRC-HQ-SLM-C-20-0131</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-132.0</t>
+          <t>FRC-HQ-SLM-C-20-0132</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-133.0</t>
+          <t>FRC-HQ-SLM-T-20-0133</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-134.0</t>
+          <t>FRC-HQ-SLM-C-20-0134</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-135.0</t>
+          <t>FRC-HQ-SLM-C-20-0135</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-136.0</t>
+          <t>FRC-HQ-SLM-C-20-0136</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-137.0</t>
+          <t>FRC-HQ-SLM-C-20-0137</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -13122,7 +13122,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-138.0</t>
+          <t>FRC-HQ-SLM-F-20-0138</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-139.0</t>
+          <t>FRC-HQ-SLM-C-20-0139</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-140.0</t>
+          <t>FRC-HQ-SLM-F-20-0140</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-141.0</t>
+          <t>FRC-HQ-SLM-C-20-0141</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-142.0</t>
+          <t>FRC-HQ-SLM-C-20-0142</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-143.0</t>
+          <t>FRC-HQ-SLM-M-21-0143</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-144.0</t>
+          <t>FRC-HQ-SLM-M-21-0144</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-145.0</t>
+          <t>FRC-HQ-SLM-O-21-0145</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-146.0</t>
+          <t>FRC-HQ-SLM-C-21-0146</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-147.0</t>
+          <t>FRC-HQ-SLM-C-21-0147</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-148.0</t>
+          <t>FRC-HQ-SLM-M-21-0148</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-149.0</t>
+          <t>FRC-HQ-SLM-F-21-0149</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-150.0</t>
+          <t>FRC-HQ-SLM-O-21-0150</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-152.0</t>
+          <t>FRC-HQ-SLM-C-21-0152</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-153.0</t>
+          <t>FRC-HQ-SLM-C-21-0153</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-154.0</t>
+          <t>FRC-HQ-SLM-C-21-0154</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-155.0</t>
+          <t>FRC-HQ-SLM-C-21-0155</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-156.0</t>
+          <t>FRC-HQ-SLM-C-21-0156</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-157.0</t>
+          <t>FRC-HQ-SLM-C-21-0157</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-158.0</t>
+          <t>FRC-HQ-SLM-C-21-0158</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-159.0</t>
+          <t>FRC-HQ-SLM-C-21-0159</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-160.0</t>
+          <t>FRC-HQ-SLM-C-21-0160</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-161.0</t>
+          <t>FRC-HQ-SLM-C-21-0161</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-162.0</t>
+          <t>FRC-HQ-SLM-I-21-0162</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-163.0</t>
+          <t>FRC-HQ-SLM-I-21-0163</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-164.0</t>
+          <t>FRC-HQ-SLM-I-21-0164</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-165.0</t>
+          <t>FRC-HQ-SLM-I-21-0165</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-166.0</t>
+          <t>FRC-HQ-SLM-I-21-0166</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-167.0</t>
+          <t>FRC-HQ-SLM-I-21-0167</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-168.0</t>
+          <t>FRC-HQ-SLM-I-21-0168</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -15608,7 +15608,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-169.0</t>
+          <t>FRC-HQ-SLM-I-21-0169</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-170.0</t>
+          <t>FRC-HQ-SLM-I-21-0170</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -15771,7 +15771,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-171.0</t>
+          <t>FRC-HQ-SLM-I-21-0171</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -15850,7 +15850,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-172.0</t>
+          <t>FRC-HQ-SLM-I-21-0172</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-173.0</t>
+          <t>FRC-HQ-SLM-S-21-0173</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-174.0</t>
+          <t>FRC-HQ-SLM-S-21-0174</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -16099,7 +16099,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-175.0</t>
+          <t>FRC-HQ-SLM-S-21-0175</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-176.0</t>
+          <t>FRC-HQ-SLM-S-21-0176</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -16261,7 +16261,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-177.0</t>
+          <t>FRC-HQ-SLM-S-21-0177</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-178.0</t>
+          <t>FRC-HQ-SLM-S-21-0178</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -16419,7 +16419,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-179.0</t>
+          <t>FRC-HQ-SLM-S-21-0179</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -16498,7 +16498,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-180.0</t>
+          <t>FRC-HQ-SLM-S-21-0180</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-181.0</t>
+          <t>FRC-HQ-SLM-S-21-0181</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-182.0</t>
+          <t>FRC-HQ-SLM-S-21-0182</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-183.0</t>
+          <t>FRC-HQ-SLM-S-21-0183</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -16818,7 +16818,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-184.0</t>
+          <t>FRC-HQ-SLM-S-21-0184</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -16898,7 +16898,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-185.0</t>
+          <t>FRC-HQ-SLM-S-21-0185</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-186.0</t>
+          <t>FRC-HQ-SLM-S-21-0186</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-187.0</t>
+          <t>FRC-HQ-SLM-S-21-0187</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-188.0</t>
+          <t>FRC-HQ-SLM-S-21-0188</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -17214,7 +17214,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-189.0</t>
+          <t>FRC-HQ-SLM-S-21-0189</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -17293,7 +17293,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-190.0</t>
+          <t>FRC-HQ-SLM-S-21-0190</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -17376,7 +17376,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-191.0</t>
+          <t>FRC-HQ-SLM-S-21-0191</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -17459,7 +17459,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-192.0</t>
+          <t>FRC-HQ-SLM-S-21-0192</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-193.0</t>
+          <t>FRC-HQ-SLM-S-21-0193</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-194.0</t>
+          <t>FRC-HQ-SLM-S-21-0194</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-195.0</t>
+          <t>FRC-HQ-SLM-S-21-0195</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-196.0</t>
+          <t>FRC-HQ-SLM-S-21-0196</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-197.0</t>
+          <t>FRC-HQ-SLM-S-21-0197</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-198.0</t>
+          <t>FRC-HQ-SLM-E-21-0198</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -18028,7 +18028,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-199.0</t>
+          <t>FRC-HQ-SLM-E-21-0199</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -18111,7 +18111,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-200.0</t>
+          <t>FRC-HQ-SLM-E-21-0200</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-201.0</t>
+          <t>FRC-HQ-SLM-E-21-0201</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-202.0</t>
+          <t>FRC-HQ-SLM-E-21-0202</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -18360,7 +18360,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-203.0</t>
+          <t>FRC-HQ-SLM-E-21-0203</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -18443,7 +18443,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-204.0</t>
+          <t>FRC-HQ-SLM-E-21-0204</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -18526,7 +18526,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-205.0</t>
+          <t>FRC-HQ-SLM-E-21-0205</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-206.0</t>
+          <t>FRC-HQ-SLM-E-21-0206</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-207.0</t>
+          <t>FRC-HQ-SLM-E-21-0207</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-208.0</t>
+          <t>FRC-HQ-SLM-E-21-0208</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-209.0</t>
+          <t>FRC-HQ-SLM-E-21-0209</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -18941,7 +18941,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-210.0</t>
+          <t>FRC-HQ-SLM-E-21-0210</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -19024,7 +19024,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-211.0</t>
+          <t>FRC-HQ-SLM-E-21-0211</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -19107,7 +19107,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-212.0</t>
+          <t>FRC-HQ-SLM-E-21-0212</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -19190,7 +19190,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-213.0</t>
+          <t>FRC-HQ-SLM-E-21-0213</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-214.0</t>
+          <t>FRC-HQ-SLM-E-21-0214</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-215.0</t>
+          <t>FRC-HQ-SLM-E-21-0215</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -19439,7 +19439,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-216.0</t>
+          <t>FRC-HQ-SLM-E-21-0216</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-217.0</t>
+          <t>FRC-HQ-SLM-E-21-0217</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-218.0</t>
+          <t>FRC-HQ-SLM-E-21-0218</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -19692,7 +19692,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-219.0</t>
+          <t>FRC-HQ-SLM-E-21-0219</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-220.0</t>
+          <t>FRC-HQ-SLM-E-21-0220</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-221.0</t>
+          <t>FRC-HQ-SLM-E-21-0221</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -19945,7 +19945,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-222.0</t>
+          <t>FRC-HQ-SLM-E-21-0222</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-223.0</t>
+          <t>FRC-HQ-SLM-E-21-0223</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-224.0</t>
+          <t>FRC-HQ-SLM-E-21-0224</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-225.0</t>
+          <t>FRC-HQ-SLM-E-21-0225</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -20269,7 +20269,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-226.0</t>
+          <t>FRC-HQ-SLM-E-21-0226</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-227.0</t>
+          <t>FRC-HQ-SLM-E-21-0227</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-228.0</t>
+          <t>FRC-HQ-SLM-E-21-0228</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -20514,7 +20514,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-229.0</t>
+          <t>FRC-HQ-SLM-E-21-0229</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-230.0</t>
+          <t>FRC-HQ-SLM-E-21-0230</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-231.0</t>
+          <t>FRC-HQ-SLM-E-21-0231</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -20751,7 +20751,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-232.0</t>
+          <t>FRC-HQ-SLM-E-21-0232</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -20830,7 +20830,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-233.0</t>
+          <t>FRC-HQ-SLM-E-21-0233</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-234.0</t>
+          <t>FRC-HQ-SLM-E-21-0234</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -20988,7 +20988,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-235.0</t>
+          <t>FRC-HQ-SLM-E-21-0235</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -21071,7 +21071,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-236.0</t>
+          <t>FRC-HQ-SLM-E-21-0236</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -21154,7 +21154,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-237.0</t>
+          <t>FRC-HQ-SLM-P-21-0237</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-238.0</t>
+          <t>FRC-HQ-SLM-P-21-0238</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -21312,7 +21312,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-239.0</t>
+          <t>FRC-HQ-SLM-P-21-0239</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -21391,7 +21391,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-240.0</t>
+          <t>FRC-HQ-SLM-P-21-0240</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -21470,7 +21470,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-241.0</t>
+          <t>FRC-HQ-SLM-P-21-0241</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-242.0</t>
+          <t>FRC-HQ-SLM-I-21-0242</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -21628,7 +21628,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-243.0</t>
+          <t>FRC-HQ-SLM-I-21-0243</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -21707,7 +21707,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-244.0</t>
+          <t>FRC-HQ-SLM-I-21-0244</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-245.0</t>
+          <t>FRC-HQ-SLM-I-21-0245</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -21865,7 +21865,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-246.0</t>
+          <t>FRC-HQ-SLM-I-21-0246</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-247.0</t>
+          <t>FRC-HQ-SLM-I-21-0247</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -22023,7 +22023,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-248.0</t>
+          <t>FRC-HQ-SLM-I-21-0248</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-249.0</t>
+          <t>FRC-HQ-SLM-I-21-0249</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -22181,7 +22181,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-250.0</t>
+          <t>FRC-HQ-SLM-I-21-0250</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -22260,7 +22260,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-251.0</t>
+          <t>FRC-HQ-SLM-I-21-0251</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -22339,7 +22339,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-252.0</t>
+          <t>FRC-HQ-SLM-I-21-0252</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -22418,7 +22418,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-253.0</t>
+          <t>FRC-HQ-SLM-I-21-0253</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-254.0</t>
+          <t>FRC-HQ-SLM-I-21-0254</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -22576,7 +22576,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-255.0</t>
+          <t>FRC-HQ-SLM-I-21-0255</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-256.0</t>
+          <t>FRC-HQ-SLM-I-21-0256</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -22734,7 +22734,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-257.0</t>
+          <t>FRC-HQ-SLM-I-21-0257</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-258.0</t>
+          <t>FRC-HQ-SLM-I-21-0258</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-259.0</t>
+          <t>FRC-HQ-SLM-I-21-0259</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -22971,7 +22971,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-260.0</t>
+          <t>FRC-HQ-SLM-I-21-0260</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -23050,7 +23050,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-261.0</t>
+          <t>FRC-HQ-SLM-I-21-0261</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-262.0</t>
+          <t>FRC-HQ-SLM-I-21-0262</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-263.0</t>
+          <t>FRC-HQ-SLM-I-21-0263</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-264.0</t>
+          <t>FRC-HQ-SLM-I-21-0264</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-265.0</t>
+          <t>FRC-HQ-SLM-I-21-0265</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -23445,7 +23445,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-266.0</t>
+          <t>FRC-HQ-SLM-I-21-0266</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -23524,7 +23524,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-267.0</t>
+          <t>FRC-HQ-SLM-I-21-0267</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -23603,7 +23603,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-268.0</t>
+          <t>FRC-HQ-SLM-I-21-0268</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -23682,7 +23682,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-269.0</t>
+          <t>FRC-HQ-SLM-I-21-0269</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -23765,7 +23765,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-270.0</t>
+          <t>FRC-HQ-SLM-I-21-0270</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -23844,7 +23844,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-271.0</t>
+          <t>FRC-HQ-SLM-I-21-0271</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -23923,7 +23923,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-272.0</t>
+          <t>FRC-HQ-SLM-I-21-0272</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -24002,7 +24002,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-273.0</t>
+          <t>FRC-HQ-SLM-I-21-0273</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-274.0</t>
+          <t>FRC-HQ-SLM-I-21-0274</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-275.0</t>
+          <t>FRC-HQ-SLM-F-21-0275</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-276.0</t>
+          <t>FRC-HQ-SLM-F-21-0276</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -24318,7 +24318,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-277.0</t>
+          <t>FRC-HQ-SLM-F-21-0277</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-278.0</t>
+          <t>FRC-HQ-SLM-F-21-0278</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-279.0</t>
+          <t>FRC-HQ-SLM-F-21-0279</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -24555,7 +24555,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-280.0</t>
+          <t>FRC-HQ-SLM-F-21-0280</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -24634,7 +24634,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-281.0</t>
+          <t>FRC-HQ-SLM-F-21-0281</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -24713,7 +24713,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-282.0</t>
+          <t>FRC-HQ-SLM-F-21-0282</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -24792,7 +24792,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-283.0</t>
+          <t>FRC-HQ-SLM-F-21-0283</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-284.0</t>
+          <t>FRC-HQ-SLM-F-21-0284</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -24954,7 +24954,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-285.0</t>
+          <t>FRC-HQ-SLM-F-21-0285</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -25037,7 +25037,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-286.0</t>
+          <t>FRC-HQ-SLM-F-21-0286</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -25120,7 +25120,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-287.0</t>
+          <t>FRC-HQ-SLM-F-21-0287</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -25199,7 +25199,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-288.0</t>
+          <t>FRC-HQ-SLM-F-21-0288</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -25282,7 +25282,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-289.0</t>
+          <t>FRC-HQ-SLM-F-21-0289</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -25365,7 +25365,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-290.0</t>
+          <t>FRC-HQ-SLM-F-21-0290</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -25448,7 +25448,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-291.0</t>
+          <t>FRC-HQ-SLM-F-21-0291</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-292.0</t>
+          <t>FRC-HQ-SLM-F-21-0292</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -25614,7 +25614,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-293.0</t>
+          <t>FRC-HQ-SLM-F-21-0293</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -25697,7 +25697,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-294.0</t>
+          <t>FRC-HQ-SLM-F-21-0294</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -25780,7 +25780,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-295.0</t>
+          <t>FRC-HQ-SLM-F-21-0295</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -25863,7 +25863,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-296.0</t>
+          <t>FRC-HQ-SLM-F-21-0296</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -25942,7 +25942,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-297.0</t>
+          <t>FRC-HQ-SLM-F-21-0297</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -26021,7 +26021,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-298.0</t>
+          <t>FRC-HQ-SLM-F-21-0298</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -26100,7 +26100,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-299.0</t>
+          <t>FRC-HQ-SLM-F-21-0299</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -26179,7 +26179,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-300.0</t>
+          <t>FRC-HQ-SLM-F-21-0300</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -26258,7 +26258,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-301.0</t>
+          <t>FRC-HQ-SLM-F-21-0301</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
